--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2387740.317440399</v>
+        <v>2491919.951891472</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>92.72329049755649</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>303.8290895531829</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>67.07783821739562</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>172.6641545385566</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>333.1529432827497</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>173.2057702920262</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>106.1845939087704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.6004328281617</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1110,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>76.69136744396202</v>
       </c>
       <c r="F8" t="n">
-        <v>27.79970453610142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>22.11136973851067</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>147.0627768575639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206823</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>20.67756722603005</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.07327741456108</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2059,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>64.40601307691377</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>107.3741909183133</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>53.08838020945834</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>20.22544352992953</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>33.48499328953088</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>185.4048731212365</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>108.2950343703276</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>112.513340657431</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>87.2147151485303</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>64.91921363453612</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206798</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>23.08134457786401</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8253826161909023</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>122.2059282187645</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>32.81060261323899</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>164.9367233701409</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>94.80184639741307</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4361,19 +4363,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989294</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.0847133907091</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="C4" t="n">
-        <v>608.0847133907091</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1859.539155949709</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1667.853271776536</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1667.853271776536</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1378.750404902179</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>1378.750404902179</v>
       </c>
       <c r="W4" t="n">
-        <v>782.4929502983421</v>
+        <v>1089.333234865218</v>
       </c>
       <c r="X4" t="n">
-        <v>608.0847133907091</v>
+        <v>861.3436839672011</v>
       </c>
       <c r="Y4" t="n">
-        <v>608.0847133907091</v>
+        <v>861.3436839672011</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4589,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2786.829352882803</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2786.829352882803</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X5" t="n">
-        <v>2413.363594621723</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y5" t="n">
-        <v>2023.224262645911</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>701.1808689801002</v>
+        <v>1031.168009380941</v>
       </c>
       <c r="C7" t="n">
-        <v>532.2446860521933</v>
+        <v>862.231826453034</v>
       </c>
       <c r="D7" t="n">
-        <v>382.1280466398576</v>
+        <v>712.1151870406983</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>564.2020934583052</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>417.3121459603948</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1879.213302807521</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1687.527418634348</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1465.760803203874</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1176.657936329517</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>921.9734481236303</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W7" t="n">
-        <v>921.9734481236303</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X7" t="n">
-        <v>921.9734481236303</v>
+        <v>1031.168009380941</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.1808689801002</v>
+        <v>1031.168009380941</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.67844312555</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.715926185139</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D8" t="n">
-        <v>937.4502275783882</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="E8" t="n">
-        <v>551.6619749801439</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189672</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189672</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.9911633238872</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,19 +4959,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415546</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="X10" t="n">
-        <v>809.1878876062117</v>
+        <v>963.8317579370582</v>
       </c>
       <c r="Y10" t="n">
-        <v>660.639628154127</v>
+        <v>963.8317579370582</v>
       </c>
     </row>
     <row r="11">
@@ -5030,22 +5032,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5060,22 +5062,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5297,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614387</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5707,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5749,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5838,16 +5840,16 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3173.601046153955</v>
+        <v>3161.37108304703</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153955</v>
+        <v>2992.434900119123</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.48440674162</v>
+        <v>2842.318260706787</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159227</v>
+        <v>2733.85948200142</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661316</v>
+        <v>2586.96953450351</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376196</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218394</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866308</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296632</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822171</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998111</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729146</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389154</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098139</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P22" t="n">
         <v>4571.634917671693</v>
@@ -5932,28 +5934,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.208525924392</v>
+        <v>4404.185983673936</v>
       </c>
       <c r="U22" t="n">
-        <v>4348.13329926859</v>
+        <v>4115.110757018134</v>
       </c>
       <c r="V22" t="n">
-        <v>4093.448811062703</v>
+        <v>3860.426268812247</v>
       </c>
       <c r="W22" t="n">
-        <v>3804.031641025743</v>
+        <v>3571.009098775286</v>
       </c>
       <c r="X22" t="n">
-        <v>3576.042090127725</v>
+        <v>3343.019547877269</v>
       </c>
       <c r="Y22" t="n">
-        <v>3355.249510984195</v>
+        <v>3343.019547877269</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6005,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6069,22 +6071,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.445529061503</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6148,10 +6150,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6178,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6211,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,28 +6226,28 @@
         <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M27" t="n">
-        <v>924.8344286397182</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.432392194325</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.342122433612</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>3228.447361044447</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>3059.51117811654</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>2909.394538704204</v>
       </c>
       <c r="E28" t="n">
         <v>2875.571313159223</v>
@@ -6379,16 +6381,16 @@
         <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
         <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
         <v>3492.020309729142</v>
@@ -6415,19 +6417,19 @@
         <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.255922673039</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W28" t="n">
-        <v>3744.978273055629</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6540,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>3058.274234351866</v>
       </c>
       <c r="D31" t="n">
-        <v>2479.398563024106</v>
+        <v>2908.15759493953</v>
       </c>
       <c r="E31" t="n">
-        <v>2479.398563024106</v>
+        <v>2760.244501357137</v>
       </c>
       <c r="F31" t="n">
-        <v>2479.398563024106</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K31" t="n">
         <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
         <v>3492.020309729142</v>
@@ -6643,28 +6645,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>3227.210417279773</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2204.627616639638</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2985.713220456422</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>2816.777037528515</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661313</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X34" t="n">
-        <v>3388.154264430192</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y34" t="n">
-        <v>3167.361685286662</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6926,61 +6928,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1954.146591037918</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1699.462102832031</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1410.044932795071</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1182.055381897053</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>961.2628027535234</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474262</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>94.65038286230612</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7357,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2323.522752046155</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2103.921287069096</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1814.846060413294</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7488,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>815.9830526793647</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>665.866413267029</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>517.9533196846359</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7570,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7606,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,40 +7636,40 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7725,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2880.538088716435</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C46" t="n">
-        <v>2711.601905788528</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>2561.485266376193</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>2561.485266376193</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.485266376193</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3510.968683588222</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3282.979132690205</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>3062.186553546675</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
   </sheetData>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.5692538725978</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>126.7587027673762</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>147.3599015160448</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>187.7316302469142</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>39.05977172825588</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>164.3170701178299</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>147.0213775686983</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>112.9489693570383</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>101.1181252153545</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>40.3204386478848</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>32.90770736550029</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>61.40075786968205</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>221.265260754708</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>263.1031298113801</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>58.82035778288011</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>112.6104454096923</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>121.5862749664501</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>797336.9821029655</v>
+        <v>797336.9821029656</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>797336.9821029655</v>
+        <v>797336.9821029656</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797336.9821029655</v>
+        <v>797336.9821029656</v>
       </c>
     </row>
     <row r="16">
@@ -26314,31 +26316,31 @@
         <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448201</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448195</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448193</v>
-      </c>
       <c r="E2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597545</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
@@ -26347,10 +26349,10 @@
         <v>625538.614759755</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
         <v>625538.614759755</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.670698566158535e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314482</v>
+      </c>
+      <c r="C4" t="n">
         <v>90354.06702314483</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>90354.06702314482</v>
       </c>
-      <c r="D4" t="n">
-        <v>90354.06702314489</v>
-      </c>
       <c r="E4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="H4" t="n">
         <v>11167.03225179357</v>
       </c>
-      <c r="H4" t="n">
-        <v>11167.03225179351</v>
-      </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179361</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179366</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
     </row>
     <row r="5">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-890725.381667311</v>
+        <v>-890725.3816673112</v>
       </c>
       <c r="C6" t="n">
+        <v>438019.364060282</v>
+      </c>
+      <c r="D6" t="n">
         <v>438019.3640602814</v>
       </c>
-      <c r="D6" t="n">
-        <v>438019.3640602813</v>
-      </c>
       <c r="E6" t="n">
-        <v>187836.590876699</v>
+        <v>187836.5908766987</v>
       </c>
       <c r="F6" t="n">
+        <v>513249.0526840544</v>
+      </c>
+      <c r="G6" t="n">
+        <v>513249.0526840543</v>
+      </c>
+      <c r="H6" t="n">
+        <v>513249.0526840544</v>
+      </c>
+      <c r="I6" t="n">
         <v>513249.0526840541</v>
       </c>
-      <c r="G6" t="n">
-        <v>513249.052684054</v>
-      </c>
-      <c r="H6" t="n">
-        <v>513249.052684054</v>
-      </c>
-      <c r="I6" t="n">
-        <v>513249.0526840539</v>
-      </c>
       <c r="J6" t="n">
-        <v>295717.8502867766</v>
+        <v>295717.8502867767</v>
       </c>
       <c r="K6" t="n">
-        <v>513249.0526840544</v>
+        <v>513249.0526840541</v>
       </c>
       <c r="L6" t="n">
         <v>513249.0526840542</v>
@@ -26558,7 +26560,7 @@
         <v>513249.0526840542</v>
       </c>
       <c r="O6" t="n">
-        <v>513249.052684054</v>
+        <v>513249.0526840541</v>
       </c>
       <c r="P6" t="n">
         <v>513249.0526840544</v>
@@ -26790,10 +26792,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>261.9597511231265</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.4088491028707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.85431445265171</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04550085048055</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>21.53009833793323</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>154.5464881781087</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.84121435025783</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>41.33171984188563</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>305.2390026282998</v>
       </c>
       <c r="F8" t="n">
-        <v>379.07634120561</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>157.7206104434266</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>71.52187649453091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="21">
@@ -29803,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29989,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,19 +32077,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M15" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32312,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>165.2255134509767</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32558,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>167.1165249313368</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32792,31 +32794,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>652.3203287778412</v>
       </c>
       <c r="O24" t="n">
-        <v>485.1127032082914</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33022,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936925</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>314.5984986256103</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,37 +33262,37 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547064</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,25 +33499,25 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>514.8598010172141</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,34 +33739,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>316.0872899694785</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33970,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34210,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>616.9033572954396</v>
+        <v>730.4561889249562</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34447,37 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286976</v>
       </c>
       <c r="N45" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M15" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>31.25110603664647</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,7 +36296,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066204</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36437,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>520.9786166945079</v>
       </c>
       <c r="O24" t="n">
-        <v>342.516458763847</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103592</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>180.6240912112801</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748323</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>376.3054212373399</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>173.4910455250341</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>485.5616452121063</v>
+        <v>599.1144768416229</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066793</v>
       </c>
       <c r="N45" t="n">
-        <v>394.9572236728663</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2491919.951891472</v>
+        <v>2487907.341877478</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>92.72329049755649</v>
+        <v>42.76773080618923</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>95.81514163764245</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>67.07783821739562</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>333.1529432827497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>168.1161921880596</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>106.1845939087704</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>37.47550198365499</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>76.69136744396202</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>177.2979137777587</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.11136973851067</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>82.70057996958639</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>20.67756722603005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>35.41770597125762</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533521026</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>228.9553704673009</v>
       </c>
       <c r="V16" t="n">
-        <v>104.7777418077832</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695327</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428081</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>64.40601307691377</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881268</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>107.3741909183133</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000776</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>20.22544352992953</v>
+        <v>104.8913819999774</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444108</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>33.48499328953088</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.3752467101216</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>228.9553704673034</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>112.513340657431</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>251.5502284016986</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788178581</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>64.91921363453612</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206798</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552806</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>23.08134457786401</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179031</v>
       </c>
       <c r="S40" t="n">
-        <v>122.2059282187645</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576144</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>32.81060261323899</v>
+        <v>70.0455488112424</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428122</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>94.80184639741307</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796256</v>
+        <v>1661.138951213863</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796256</v>
+        <v>1661.138951213863</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881544</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.6952191369613</v>
+        <v>1042.179465010819</v>
       </c>
       <c r="C4" t="n">
-        <v>510.7590362090544</v>
+        <v>873.2432820829124</v>
       </c>
       <c r="D4" t="n">
-        <v>360.6423967967187</v>
+        <v>723.1266426705766</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>575.2135490881835</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>428.3236015902731</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>260.6207649649921</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1859.539155949709</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1667.853271776536</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1667.853271776536</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1378.750404902179</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1378.750404902179</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1089.333234865218</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="X4" t="n">
-        <v>861.3436839672011</v>
+        <v>1444.620508984589</v>
       </c>
       <c r="Y4" t="n">
-        <v>861.3436839672011</v>
+        <v>1223.827929841059</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223196</v>
+        <v>1859.132475219476</v>
       </c>
       <c r="C5" t="n">
-        <v>1252.833343223196</v>
+        <v>1490.169958279065</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1490.169958279065</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>1104.38170568082</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>693.3958008912127</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>278.3233507362092</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524209</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263129</v>
+        <v>2635.87164725941</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287318</v>
+        <v>2245.732315283598</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,46 +4652,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1031.168009380941</v>
+        <v>994.2880032601529</v>
       </c>
       <c r="C7" t="n">
-        <v>862.231826453034</v>
+        <v>825.351820332246</v>
       </c>
       <c r="D7" t="n">
-        <v>712.1151870406983</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E7" t="n">
-        <v>564.2020934583052</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F7" t="n">
-        <v>417.3121459603948</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1697.754621507587</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1697.754621507587</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>1443.0701333017</v>
       </c>
       <c r="W7" t="n">
-        <v>1259.157560278958</v>
+        <v>1443.0701333017</v>
       </c>
       <c r="X7" t="n">
-        <v>1031.168009380941</v>
+        <v>1215.080582403683</v>
       </c>
       <c r="Y7" t="n">
-        <v>1031.168009380941</v>
+        <v>994.2880032601529</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.53911114974</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>905.5765942093283</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>905.5765942093283</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213862</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>941.4970410294717</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4959,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.821308835076</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>963.8317579370582</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.8317579370582</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5032,43 +5032,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5108,40 +5108,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J12" t="n">
-        <v>150.8995423128888</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>484.8243144841094</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5007694647281</v>
+        <v>763.7541388327555</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>594.8179559048486</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925129</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101198</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949679</v>
+        <v>945.4026036629953</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5299,13 +5299,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998682</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>680.0291294438182</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,40 +5506,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J18" t="n">
-        <v>150.8995423128889</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841095</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>776.1751066403302</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270434</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1623.329274989137</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3161.37108304703</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>2992.434900119123</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>2842.318260706787</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2733.85948200142</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.96953450351</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.77343521839</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673936</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.110757018134</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>3860.426268812247</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>3571.009098775286</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3343.019547877269</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>3343.019547877269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5983,40 +5983,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192585</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191924</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191924</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168584</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362656</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="27">
@@ -6290,40 +6290,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516139</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3228.447361044447</v>
+        <v>571.6607764188003</v>
       </c>
       <c r="C28" t="n">
-        <v>3059.51117811654</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D28" t="n">
-        <v>2909.394538704204</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328841</v>
+        <v>1746.193029533434</v>
       </c>
       <c r="V28" t="n">
-        <v>3966.646661122954</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.229491085994</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X28" t="n">
-        <v>3449.239940187977</v>
+        <v>974.1018203925699</v>
       </c>
       <c r="Y28" t="n">
-        <v>3228.447361044447</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969311</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3227.210417279773</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>3058.274234351866</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>2908.15759493953</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>2760.244501357137</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.19996817779</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279773</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>3227.210417279773</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6715,22 +6715,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6767,34 +6767,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K33" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516139</v>
       </c>
       <c r="L33" t="n">
-        <v>949.9304447718135</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.487582220359</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6961,28 +6961,28 @@
         <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,40 +7001,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797182</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191923</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349509</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061502</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.043492616109</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>779.6143379232836</v>
+        <v>580.8993044876684</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474257</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U37" t="n">
-        <v>1954.146591037918</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V37" t="n">
-        <v>1699.462102832031</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W37" t="n">
-        <v>1410.044932795071</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1182.055381897053</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y37" t="n">
-        <v>961.2628027535234</v>
+        <v>762.5477693179081</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075833</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2323.522752046155</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2103.921287069096</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1814.846060413294</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1560.161572207407</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1560.161572207407</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1332.172021309389</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,46 +7399,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075819</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>984.9192356072716</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C43" t="n">
-        <v>815.9830526793647</v>
+        <v>853.5941094450246</v>
       </c>
       <c r="D43" t="n">
-        <v>665.866413267029</v>
+        <v>703.4774700326889</v>
       </c>
       <c r="E43" t="n">
-        <v>517.9533196846359</v>
+        <v>555.5643764502958</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.378057281679</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1652.960887244719</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>1424.971336346701</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.9192356072716</v>
+        <v>1204.178757203171</v>
       </c>
     </row>
     <row r="44">
@@ -7639,37 +7639,37 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270438</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7824,34 +7824,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.5692538725978</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>110.0033420516736</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194322</v>
       </c>
       <c r="V16" t="n">
-        <v>147.3599015160448</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194308</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>187.7316302469142</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>39.05977172825588</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891665</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>147.0213775686983</v>
+        <v>62.35543909865041</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>112.9489693570383</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856545</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194063</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>32.90770736550029</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>0.5874149221293692</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194314</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>221.265260754708</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>125.5054897610411</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>263.1031298113801</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>57.22910392194268</v>
       </c>
       <c r="S40" t="n">
-        <v>58.82035778288011</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>112.6104454096923</v>
+        <v>75.37549921168885</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194267</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797336.9821029655</v>
+        <v>797336.9821029654</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797336.9821029655</v>
+        <v>797336.9821029656</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448192</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073545</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9.104237453838083e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314471</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314476</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179361</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.0322517936</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179359</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179368</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179361</v>
+        <v>11167.03225179362</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179366</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
+        <v>11167.03225179359</v>
+      </c>
+      <c r="P4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11167.03225179352</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-890725.3816673112</v>
       </c>
       <c r="C6" t="n">
-        <v>438019.364060282</v>
+        <v>438019.3640602811</v>
       </c>
       <c r="D6" t="n">
-        <v>438019.3640602814</v>
+        <v>438019.3640602817</v>
       </c>
       <c r="E6" t="n">
-        <v>187836.5908766987</v>
+        <v>187489.211622343</v>
       </c>
       <c r="F6" t="n">
-        <v>513249.0526840544</v>
+        <v>512901.6734296972</v>
       </c>
       <c r="G6" t="n">
-        <v>513249.0526840543</v>
+        <v>512901.6734296972</v>
       </c>
       <c r="H6" t="n">
-        <v>513249.0526840544</v>
+        <v>512901.6734296972</v>
       </c>
       <c r="I6" t="n">
-        <v>513249.0526840541</v>
+        <v>512901.6734296973</v>
       </c>
       <c r="J6" t="n">
-        <v>295717.8502867767</v>
+        <v>295370.4710324195</v>
       </c>
       <c r="K6" t="n">
-        <v>513249.0526840541</v>
+        <v>512901.6734296969</v>
       </c>
       <c r="L6" t="n">
-        <v>513249.0526840542</v>
+        <v>512901.6734296972</v>
       </c>
       <c r="M6" t="n">
-        <v>428194.0247485425</v>
+        <v>427846.6454941855</v>
       </c>
       <c r="N6" t="n">
-        <v>513249.0526840542</v>
+        <v>512901.6734296972</v>
       </c>
       <c r="O6" t="n">
-        <v>513249.0526840541</v>
+        <v>512901.6734296972</v>
       </c>
       <c r="P6" t="n">
-        <v>513249.0526840544</v>
+        <v>512901.6734296973</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,34 +27011,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973548</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27047,7 +27047,7 @@
         <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>261.9597511231265</v>
+        <v>311.9153108144938</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>48.93987327667833</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.85431445265171</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>21.53009833793323</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>126.4915721992609</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>59.84121435025783</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>182.0734472925142</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>305.2390026282998</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>26.62005636186143</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.7206104434266</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.359001882723533e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28316,7 +28316,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-5.540917888202e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.074784788419493e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29802,10 +29802,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>2.359001882723533e-12</v>
       </c>
       <c r="U32" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.676880856393836e-12</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4971006716333</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753712</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>545.3845241768652</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614922</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4971006716334</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593855</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32703,7 +32703,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I23" t="n">
         <v>212.0155798067231</v>
@@ -32712,28 +32712,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32742,7 +32742,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,40 +32779,40 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N24" t="n">
-        <v>652.3203287778412</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742437</v>
@@ -32864,7 +32864,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
@@ -32879,13 +32879,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32940,7 +32940,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I26" t="n">
         <v>212.0155798067231</v>
@@ -32949,28 +32949,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,37 +33016,37 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N27" t="n">
-        <v>290.6810969936925</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33101,7 +33101,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
@@ -33116,13 +33116,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33177,37 +33177,37 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043748</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,37 +33253,37 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L30" t="n">
-        <v>279.2419622547064</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33338,7 +33338,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
@@ -33353,13 +33353,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33414,7 +33414,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I32" t="n">
         <v>212.0155798067231</v>
@@ -33423,28 +33423,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33453,7 +33453,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L33" t="n">
-        <v>514.8598010172141</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33575,7 +33575,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
@@ -33590,13 +33590,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33651,7 +33651,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I35" t="n">
         <v>212.0155798067231</v>
@@ -33660,28 +33660,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043748</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33690,7 +33690,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,37 +33727,37 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O36" t="n">
-        <v>316.0872899694785</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33812,7 +33812,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
@@ -33827,13 +33827,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33888,7 +33888,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I38" t="n">
         <v>212.0155798067231</v>
@@ -33897,28 +33897,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817604</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,37 +33964,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M39" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34049,7 +34049,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
@@ -34064,13 +34064,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34125,37 +34125,37 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34164,7 +34164,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N42" t="n">
-        <v>730.4561889249562</v>
+        <v>593.5422977113971</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34286,7 +34286,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
@@ -34301,13 +34301,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34362,7 +34362,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I44" t="n">
         <v>212.0155798067231</v>
@@ -34371,28 +34371,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043748</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34401,7 +34401,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,37 +34438,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M45" t="n">
-        <v>339.9772972286976</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34523,7 +34523,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
@@ -34538,13 +34538,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>57.65947400496659</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533528</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>406.830144396991</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>590.348564839474</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J18" t="n">
-        <v>57.6594740049667</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795113</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>520.9786166945079</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899073</v>
@@ -36533,7 +36533,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998983</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>159.3393849103592</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629534</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L30" t="n">
-        <v>140.6875824748323</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899073</v>
@@ -37007,7 +37007,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998983</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L33" t="n">
-        <v>376.3054212373399</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899073</v>
@@ -37244,7 +37244,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998983</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O36" t="n">
-        <v>173.4910455250341</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899073</v>
@@ -37481,7 +37481,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998983</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367799</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M39" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899073</v>
@@ -37718,7 +37718,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998983</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>599.1144768416229</v>
+        <v>462.2005856280637</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899073</v>
@@ -37955,7 +37955,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998983</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M45" t="n">
-        <v>197.8432633066793</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899073</v>
@@ -38192,7 +38192,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998983</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2487907.341877478</v>
+        <v>2489667.872180264</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3.657500457871858</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>42.76773080618923</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>95.81514163764245</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>110.4892783404652</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>224.3548762208278</v>
       </c>
       <c r="H5" t="n">
-        <v>168.1161921880596</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>37.47550198365499</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>135.259425062653</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>299.4246789398215</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>177.2979137777587</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>106.5867442799591</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>82.70057996958639</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>35.41770597125762</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>125.9491534982824</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533521026</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673009</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695327</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428081</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881268</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000776</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>104.8913819999774</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>247.2924896597629</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444108</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462238</v>
+        <v>1.799772605712117</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101216</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673034</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>251.5502284016986</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788178581</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>135.3135037226519</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>20.92847288552806</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179031</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576144</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>70.0455488112424</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>120.8326485140796</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428122</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.138951213863</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1661.138951213863</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189674</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213863</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686077</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064753</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080133</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1042.179465010819</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>873.2432820829124</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>723.1266426705766</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>575.2135490881835</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>428.3236015902731</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>260.6207649649921</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="W4" t="n">
-        <v>1672.610059882606</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="X4" t="n">
-        <v>1444.620508984589</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y4" t="n">
-        <v>1223.827929841059</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1859.132475219476</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C5" t="n">
-        <v>1490.169958279065</v>
+        <v>1490.169958279062</v>
       </c>
       <c r="D5" t="n">
-        <v>1490.169958279065</v>
+        <v>1131.904259672312</v>
       </c>
       <c r="E5" t="n">
-        <v>1104.38170568082</v>
+        <v>746.1160070740675</v>
       </c>
       <c r="F5" t="n">
-        <v>693.3958008912127</v>
+        <v>335.13010228446</v>
       </c>
       <c r="G5" t="n">
-        <v>278.3233507362092</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.87164725941</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283598</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601529</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>825.351820332246</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199102</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>527.3220873375171</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.754621507587</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.754621507587</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1443.0701333017</v>
+        <v>1790.668866207025</v>
       </c>
       <c r="W7" t="n">
-        <v>1443.0701333017</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="X7" t="n">
-        <v>1215.080582403683</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y7" t="n">
-        <v>994.2880032601529</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1892.963660013482</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1524.00114307307</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1165.73544446632</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>779.9471918680754</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>368.9612870784678</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3146.517019813456</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3146.517019813456</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4959,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
@@ -5050,25 +5050,25 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5108,40 +5108,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998425</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998425</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327555</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048486</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925129</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101198</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797182</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797182</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806533</v>
+        <v>1017.062828441876</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036629953</v>
+        <v>796.270249298346</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5293,19 +5293,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273895</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273895</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273895</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438182</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998425</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403302</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400703</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270434</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138402</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.50206557031</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,34 +5983,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192585</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400703</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310022</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310022</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310022</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854705</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648818</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138402</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.50206557031</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168584</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362656</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6293,31 +6293,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273893</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803935</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516139</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167372</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.45752234853</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188003</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057736</v>
+        <v>177.7213185270402</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797182</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038303</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797704</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533434</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925699</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="29">
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6624,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6639,13 +6639,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6715,28 +6715,28 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6767,31 +6767,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273893</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516139</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188007</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797182</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490404</v>
+        <v>779.6143379232836</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876684</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597615</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474257</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614382</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179081</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075833</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143763</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7350,19 +7350,19 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
         <v>1746.193029533436</v>
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075819</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7432,13 +7432,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7484,22 +7484,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
         <v>2129.438138565707</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1022.530292372932</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>853.5941094450246</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>703.4774700326889</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>555.5643764502958</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487566</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>2197.062545487566</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1942.378057281679</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1652.960887244719</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1424.971336346701</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.178757203171</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="44">
@@ -7639,37 +7639,37 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121639</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121639</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121639</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121639</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270438</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7824,13 +7824,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>110.0033420516736</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>99.76050189075471</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194322</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194308</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891665</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>62.35543909865041</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>4.845153664065066</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.4949402405118</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856545</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194063</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5874149221293692</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194314</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>83.27114962944293</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>125.5054897610411</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194268</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>75.37549921168885</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>104.8770068749576</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194267</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797336.9821029654</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448192</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073545</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>9.104237453838083e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314471</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179361</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.0322517936</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179359</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179368</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179362</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26456,7 +26456,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179359</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-890725.3816673112</v>
+        <v>-890725.3816673113</v>
       </c>
       <c r="C6" t="n">
-        <v>438019.3640602811</v>
+        <v>438019.3640602812</v>
       </c>
       <c r="D6" t="n">
-        <v>438019.3640602817</v>
+        <v>438019.3640602812</v>
       </c>
       <c r="E6" t="n">
-        <v>187489.211622343</v>
+        <v>187801.8529512633</v>
       </c>
       <c r="F6" t="n">
-        <v>512901.6734296972</v>
+        <v>513214.3147586186</v>
       </c>
       <c r="G6" t="n">
-        <v>512901.6734296972</v>
+        <v>513214.3147586187</v>
       </c>
       <c r="H6" t="n">
-        <v>512901.6734296972</v>
+        <v>513214.3147586186</v>
       </c>
       <c r="I6" t="n">
-        <v>512901.6734296973</v>
+        <v>513214.3147586186</v>
       </c>
       <c r="J6" t="n">
-        <v>295370.4710324195</v>
+        <v>295683.1123613408</v>
       </c>
       <c r="K6" t="n">
-        <v>512901.6734296969</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="L6" t="n">
-        <v>512901.6734296972</v>
+        <v>513214.3147586187</v>
       </c>
       <c r="M6" t="n">
-        <v>427846.6454941855</v>
+        <v>428159.2868231065</v>
       </c>
       <c r="N6" t="n">
-        <v>512901.6734296972</v>
+        <v>513214.3147586181</v>
       </c>
       <c r="O6" t="n">
-        <v>512901.6734296972</v>
+        <v>513214.3147586184</v>
       </c>
       <c r="P6" t="n">
-        <v>512901.6734296973</v>
+        <v>513214.3147586185</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>379.0763412056087</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>311.9153108144938</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>48.93987327667833</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>175.7225598651477</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>186.5668494326256</v>
       </c>
       <c r="H5" t="n">
-        <v>126.4915721992609</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>182.0734472925142</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>116.878218261175</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>111.4970467136319</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>26.62005636186143</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>42.02872873825321</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>83.32522828944184</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.359001882723533e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28316,7 +28316,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-5.540917888202e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28377,10 +28377,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-8.952838470577262e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.074784788419493e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28854,10 +28854,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="L28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.056421872075505e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>2.359001882723533e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753712</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543356</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>732.4825987614922</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5641188593855</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162575</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558027</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817604</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236505</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>593.5422977113971</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533528</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>35.97859357997665</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>590.348564839474</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>199.0097390795113</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462702</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113583</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409631</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367799</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>462.2005856280637</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
